--- a/bookreader-backend/src/main/java/com/wechat/BookReader/comment.xlsx
+++ b/bookreader-backend/src/main/java/com/wechat/BookReader/comment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15755" windowHeight="9084"/>
+    <workbookView windowWidth="14568" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>2018-03-07</t>
   </si>
   <si>
-    <t>CRISPR/Cas9</t>
+    <t>CRISPR</t>
   </si>
   <si>
     <t>读了一遍，感觉不够，知识点真的非常多和细</t>
@@ -97,7 +97,7 @@
     <t>2019-01-21</t>
   </si>
   <si>
-    <t>女王公园的八神</t>
+    <t>八神</t>
   </si>
   <si>
     <t>我觉得这本书对软件工程的整个流程总结的还是很周到的，很适合初学者学习以及作为工具书参考。</t>
@@ -187,9 +187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -226,14 +226,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,80 +291,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,6 +330,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -355,15 +339,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,187 +385,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +583,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -603,28 +614,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,31 +656,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -684,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,137 +696,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,9 +843,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1202,7 +1199,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1339,7 +1336,7 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D7">
@@ -1359,7 +1356,7 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D8">
@@ -1379,7 +1376,7 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D9">
@@ -1399,7 +1396,7 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D10">
@@ -1419,7 +1416,7 @@
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D11">
@@ -1439,7 +1436,7 @@
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D12">
@@ -1459,7 +1456,7 @@
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D13">
@@ -1479,7 +1476,7 @@
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D14">
@@ -1499,7 +1496,7 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D15">
